--- a/app/static/test.xlsx
+++ b/app/static/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,64 +424,35 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>adsdsdsfdsfdf</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>23423432423434</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>432432432342</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>324324234</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>2342442234</t>
+          <t>TMUUZ214654908456</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adsdsaadsads</t>
+          <t>ASDASDsa123</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
-          <t>123123123212312</t>
+          <t>USA8491651</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
-          <t>DAS</t>
+          <t>MGRJM0000020318YQ</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
-          <t>123121231231</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>asads12dsadsad</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>dsadsadsasdad</t>
+          <t>L25744564</t>
         </is>
       </c>
     </row>

--- a/app/static/test.xlsx
+++ b/app/static/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,35 +424,1484 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>TMUUZ214654908456</t>
-        </is>
+          <t>ACV285089162</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>79017595853</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ASDASDsa123</t>
-        </is>
+          <t>ACV285558142</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>79053381610</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>USA8491651</t>
-        </is>
+          <t>ACV286216742</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>79067994374</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MGRJM0000020318YQ</t>
-        </is>
+          <t>ACV287037652</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>79092259096</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>L25744564</t>
+          <t>ACV287605217</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>79095502449</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ACV285504492</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>79098337198</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ACV287067532</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>79099968964</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ACV281846267</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>79117500948</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ACV287344052</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>79139863954</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ACV285546757</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>917983748</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9000264</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32507946530035</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Шелехов Олег Олегович</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ACV288491877</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>79165821220</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ACV287570527</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>79175110076</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ACV287632332</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>79175110076</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ACV287874497</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>79175110076</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ACV288213147</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>79175110076</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ACV288515937</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>79202945739</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ACV288393912</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>79213521224</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ACV285707242</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>79262736501</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ACV283587217</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>79271938868</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ACV283592067</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>79271938868</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ACV287816727</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>79280319484</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ACV288808387</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>79296207687</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ACV288084972</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>79397111512</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ACV286635837</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>79522795177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ACV287997267</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>79534037303</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ACV284265332</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>79611806620</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ACV285258657</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>79617762727</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ACV285491457</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>79617762727</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ACV286136822</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>79684863768</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ACV287320862</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>79686081278</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ACV287365797</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>79686081278</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ACV287596302</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>79686081278</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ACV280985242</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>79772931964</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ACV283281662</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>79829912912</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ACV287653237</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>79851340521</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ACV287920082</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>79851848978</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ACV287118862</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>79853873368</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ACV286760927</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>79858932590</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ACV284277312</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>79994595367</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ACV286021927</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>79998491707</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ACV284421342</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>998900093235</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ACV288131632</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>998900120593</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ACV288812822</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>998900410063</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ACV279856372</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>+998901152345</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5113198</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>40412976600021</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Таджиева Нозима Фарход кизи</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ACV284224717</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>998901344355</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ACV288794407</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>998901518419</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ACV281804842</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>901777659</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2850145</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>61403046180018</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Дина Джафарова</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ACV287045627</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>998901863333</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ACV283571292</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>998901887860</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ACV283302707</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>998902430377</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ACV286028432</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>998902850777</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ACV284931452</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>998903534424</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ACV287836247</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>998903714911</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ACV285006767</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>998903725346</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ACV285284587</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>998903725346</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ACV285719022</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>998903725346</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ACV288444637</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>998905980071</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ACV288501477</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>998905980071</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ACV288515932</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>998905980071</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ACV287227277</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>+998908062900</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3640705</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>31710823140046</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bekchanov Rustam</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ACV282687417</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>998908251108</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ACV282453902</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>+998909258000</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0040029</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>40401740191564</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Алена Пак</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ACV287632292</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>998909866166</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ACV287590882</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>998910094176</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ACV286680792</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>998912403555</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1961699</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>32004850200011</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Александр Тихонов</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ACV285257702</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>912577117</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1489691</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>30708952720034</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Муртазов Аброр Алишер угли</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ACV282556527</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>+998917777878</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1522008</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>32405910840015</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Alisher Konushev</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ACV286414732</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>998917919974</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ACV281990492</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>998919517181</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ACV287356517</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>+998931711629</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1586714</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>31411740360015</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Дмитрий Воробьёв</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ACV287361687</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>998933127903</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ACV287980392</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>998934943649</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ACV287696147</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>998935028272</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ACV287743907</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>998935028272</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ACV287616597</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>998935689151</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ACV287640237</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>998935689151</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ACV287672082</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>998935689151</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ACV287381587</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>998935775740</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ACV287805812</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>998935810220</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ACV287819862</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>998935810220</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ACV288098657</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>998935810220</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ACV288131707</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>998935810220</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ACV286983807</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>998935922640</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ACV287596117</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>+998939730689</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6166974</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>30206894310035</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Базаров Шухрат Юрсунович</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ACV283844167</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>998940003581</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ACV288807582</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>998940395789</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ACV287381637</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>+998940754066</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4022070</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>32403746500015</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Rauf Bikmetov</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ACV288895342</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>998942039866</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ACV287674277</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>998942636363</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ACV288131652</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>998946195777</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ACV283594867</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>+998946416110</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>8065329</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>30901716500017</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Tadjiev Alisher Chingizovich</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ACV285642097</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>998946503888</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ACV287022012</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>+998947288815</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7313160</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>52307016540058</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Fayzullayev ayubhon bahtiyor ogli</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ACV287062367</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>998947288815</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ACV285942687</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>998949558026</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ACV288448917</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>998952243546</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ACV285062472</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>998957721441</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ACV287839327</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>+998957902178</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>6658254</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>42211896530018</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Ощепкова Ксения Евгеньевна</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ACV287843182</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>998971558739</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ACV285053887</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>998977081308</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ACV280263172</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>998977174788</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ACV284110417</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>998977549767</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ACV281638517</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>998978813531</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ACV285062477</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>998993031379</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ACV285233447</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>998993031379</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ACV285558062</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>998993031379</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ACV281890597</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>+998993535347</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0829219</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>32908786530014</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Калашников Алексей Борисович</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ACV288628832</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>998998110812</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ACV286263142</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>+998998214030</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1935799</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>41607830240038</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Гафурова Камола Баходировна</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ACV287816712</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>998998330507</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ACV287843192</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>+998998588343</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ad</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3580543</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>30407800270036</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Malik Makhmudov</t>
         </is>
       </c>
     </row>
